--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="487">
   <si>
     <t>Path</t>
   </si>
@@ -366,10 +366,7 @@
 </t>
   </si>
   <si>
-    <t>Canonical reference to the specific version of the measure used to generate the population.</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Canonical reference to the specific version of the measure used to generate the population</t>
   </si>
   <si>
     <t>measurePopulationId</t>
@@ -399,7 +396,7 @@
 </t>
   </si>
   <si>
-    <t>Indicates if the patient received the targeted treatment to close the care gap.</t>
+    <t>Indicates if the patient received the targeted treatment to close the care gap</t>
   </si>
   <si>
     <t>relatedObservation</t>
@@ -409,7 +406,7 @@
 </t>
   </si>
   <si>
-    <t>Related observations that can be combined to fulfill a single time period for a given care gap or other measure population.</t>
+    <t>Related observations that can be combined to fulfill a single time period for a given care gap or other measure population</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -807,8 +804,7 @@
 </t>
   </si>
   <si>
-    <t>initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | measure-population | measure-population-exclusion | measure-observation | care-gap
-Type of observation (code / type)</t>
+    <t>Type of observation (code / type), initial-population | numerator | numerator-exclusion | denominator | denominator-exclusion | denominator-exception | measure-population | measure-population-exclusion | measure-observation | care-gap</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
@@ -1010,8 +1006,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t>Quantity {http://ibm.com/fhir/cdm/StructureDefinition/quantity-with-conversion}
+stringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -2838,7 +2834,7 @@
         <v>111</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2927,7 +2923,7 @@
         <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>45</v>
@@ -2949,13 +2945,13 @@
         <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3044,7 +3040,7 @@
         <v>100</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>45</v>
@@ -3066,13 +3062,13 @@
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3161,7 +3157,7 @@
         <v>100</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>45</v>
@@ -3183,13 +3179,13 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3278,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>45</v>
@@ -3300,13 +3296,13 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3392,11 +3388,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3418,16 +3414,16 @@
         <v>102</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3476,7 +3472,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3511,7 +3507,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3534,17 +3530,17 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3581,10 +3577,10 @@
         <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>45</v>
@@ -3593,7 +3589,7 @@
         <v>106</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3608,19 +3604,19 @@
         <v>68</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3628,7 +3624,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3654,10 +3650,10 @@
         <v>57</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3708,7 +3704,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3732,7 +3728,7 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -3743,11 +3739,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3769,13 +3765,13 @@
         <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3816,7 +3812,7 @@
         <v>105</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>45</v>
@@ -3825,7 +3821,7 @@
         <v>106</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3849,7 +3845,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3860,7 +3856,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3886,16 +3882,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3920,31 +3916,31 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3968,7 +3964,7 @@
         <v>69</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3979,7 +3975,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4002,19 +3998,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -4039,29 +4035,29 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4082,10 +4078,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4096,7 +4092,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4122,16 +4118,16 @@
         <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4144,43 +4140,43 @@
         <v>45</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4201,10 +4197,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4215,7 +4211,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4241,13 +4237,13 @@
         <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4261,43 +4257,43 @@
         <v>45</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4318,10 +4314,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4332,7 +4328,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4355,13 +4351,13 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4412,7 +4408,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4433,10 +4429,10 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4447,7 +4443,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4470,16 +4466,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4529,7 +4525,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4550,10 +4546,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4564,10 +4560,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>45</v>
@@ -4589,17 +4585,17 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4648,7 +4644,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4663,19 +4659,19 @@
         <v>68</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4683,7 +4679,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4709,10 +4705,10 @@
         <v>57</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4763,7 +4759,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4787,7 +4783,7 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4798,11 +4794,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4824,13 +4820,13 @@
         <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4871,7 +4867,7 @@
         <v>105</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>45</v>
@@ -4880,7 +4876,7 @@
         <v>106</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4904,7 +4900,7 @@
         <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4915,7 +4911,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4941,16 +4937,16 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4960,7 +4956,7 @@
         <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>45</v>
@@ -4975,31 +4971,31 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5023,7 +5019,7 @@
         <v>69</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5034,7 +5030,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5057,19 +5053,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5079,29 +5075,29 @@
         <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="S29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5118,7 +5114,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5139,10 +5135,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5153,7 +5149,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5179,16 +5175,16 @@
         <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5201,43 +5197,43 @@
         <v>45</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5258,10 +5254,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5272,7 +5268,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5298,13 +5294,13 @@
         <v>57</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5318,43 +5314,43 @@
         <v>45</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5375,10 +5371,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5389,7 +5385,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5412,13 +5408,13 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5469,7 +5465,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5490,10 +5486,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5504,7 +5500,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5527,16 +5523,16 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5586,7 +5582,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5607,10 +5603,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5621,11 +5617,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5644,17 +5640,17 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5703,7 +5699,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5718,16 +5714,16 @@
         <v>68</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5738,11 +5734,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5761,16 +5757,16 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5820,7 +5816,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5835,16 +5831,16 @@
         <v>68</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5855,7 +5851,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5881,16 +5877,16 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5915,14 +5911,14 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>55</v>
@@ -5954,19 +5950,19 @@
         <v>68</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -5974,7 +5970,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5997,19 +5993,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6037,11 +6033,11 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6058,7 +6054,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6082,10 +6078,10 @@
         <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6093,11 +6089,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6116,19 +6112,19 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6153,11 +6149,11 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6175,7 +6171,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>55</v>
@@ -6190,27 +6186,27 @@
         <v>68</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6233,19 +6229,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6294,7 +6290,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6309,19 +6305,19 @@
         <v>68</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6329,7 +6325,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6352,16 +6348,16 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6411,7 +6407,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6432,13 +6428,13 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6446,11 +6442,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6469,19 +6465,19 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6530,7 +6526,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6545,19 +6541,19 @@
         <v>68</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6565,11 +6561,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6588,19 +6584,19 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6649,7 +6645,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6664,19 +6660,19 @@
         <v>68</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6684,7 +6680,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6707,16 +6703,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6766,7 +6762,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6787,13 +6783,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6801,7 +6797,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6824,17 +6820,17 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6883,7 +6879,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6898,19 +6894,19 @@
         <v>68</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6918,7 +6914,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6941,19 +6937,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7002,7 +6998,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7011,7 +7007,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>68</v>
@@ -7020,24 +7016,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7060,19 +7056,19 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7097,14 +7093,14 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7121,7 +7117,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7130,7 +7126,7 @@
         <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>68</v>
@@ -7145,7 +7141,7 @@
         <v>69</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7156,11 +7152,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7179,19 +7175,19 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7216,14 +7212,14 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7240,7 +7236,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7258,24 +7254,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7298,19 +7294,19 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7359,7 +7355,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7380,10 +7376,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7394,7 +7390,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7417,16 +7413,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7452,14 +7448,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="X49" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="X49" t="s" s="2">
+      <c r="Y49" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7476,7 +7472,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7494,24 +7490,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7534,19 +7530,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7571,14 +7567,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7595,7 +7591,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7616,10 +7612,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7630,7 +7626,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7653,16 +7649,16 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7712,7 +7708,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7730,24 +7726,24 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>383</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7770,16 +7766,16 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7829,7 +7825,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7847,24 +7843,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7887,19 +7883,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7948,7 +7944,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7960,19 +7956,19 @@
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7983,7 +7979,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8009,10 +8005,10 @@
         <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8063,7 +8059,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8087,7 +8083,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8098,11 +8094,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8124,13 +8120,13 @@
         <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8180,7 +8176,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8204,7 +8200,7 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8215,11 +8211,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8241,16 +8237,16 @@
         <v>102</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="M56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8299,7 +8295,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8334,7 +8330,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8357,13 +8353,13 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8414,7 +8410,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8423,7 +8419,7 @@
         <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>68</v>
@@ -8435,10 +8431,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8449,7 +8445,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8472,13 +8468,13 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8529,7 +8525,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8538,7 +8534,7 @@
         <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>68</v>
@@ -8550,10 +8546,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8564,7 +8560,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8587,19 +8583,19 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8627,11 +8623,11 @@
         <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8648,7 +8644,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8666,13 +8662,13 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8683,7 +8679,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8706,19 +8702,19 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8743,14 +8739,14 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8767,7 +8763,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8785,13 +8781,13 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8802,7 +8798,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8825,17 +8821,17 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8884,7 +8880,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8908,7 +8904,7 @@
         <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8919,7 +8915,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8945,10 +8941,10 @@
         <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8999,7 +8995,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9020,10 +9016,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -9034,7 +9030,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9057,16 +9053,16 @@
         <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9116,7 +9112,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9137,10 +9133,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9151,7 +9147,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9174,16 +9170,16 @@
         <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9233,7 +9229,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9254,10 +9250,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9268,7 +9264,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9291,19 +9287,19 @@
         <v>56</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9352,7 +9348,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9373,10 +9369,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9387,7 +9383,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9413,10 +9409,10 @@
         <v>57</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9467,7 +9463,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9491,7 +9487,7 @@
         <v>45</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9502,11 +9498,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9528,13 +9524,13 @@
         <v>102</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9584,7 +9580,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9608,7 +9604,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9619,11 +9615,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9645,16 +9641,16 @@
         <v>102</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="M68" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9703,7 +9699,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9738,7 +9734,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9761,19 +9757,19 @@
         <v>56</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9798,14 +9794,14 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>55</v>
@@ -9840,16 +9836,16 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>45</v>
@@ -9857,7 +9853,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9880,19 +9876,19 @@
         <v>56</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9941,7 +9937,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9959,24 +9955,24 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9999,19 +9995,19 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10036,14 +10032,14 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10060,7 +10056,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10069,7 +10065,7 @@
         <v>55</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>68</v>
@@ -10084,7 +10080,7 @@
         <v>69</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10095,11 +10091,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10118,19 +10114,19 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10155,14 +10151,14 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10179,7 +10175,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10197,24 +10193,24 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10240,16 +10236,16 @@
         <v>45</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="M73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10298,7 +10294,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10319,10 +10315,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Observation created by IBM Health Data Connect to record measure populations for a patient over time</t>
+    <t>Observation created by Health Data Connect to record measure populations for a patient over time</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1962,37 +1962,37 @@
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="251.62890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -290,287 +290,291 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>canonicalMeasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/canonical-measure}
+</t>
+  </si>
+  <si>
+    <t>Canonical reference to the specific version of the measure used to generate the population</t>
+  </si>
+  <si>
+    <t>measurePopulationId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-population-id}
+</t>
+  </si>
+  <si>
+    <t>User-friendly textual key (internal use only) that identifies a specific population. This id should be unique across all measures and should not change when a measure is versioned or when overrides are applied. This value identifies the specific care gap or other population.</t>
+  </si>
+  <si>
+    <t>assignedPractitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/assigned-practitioner}
+</t>
+  </si>
+  <si>
+    <t>The practitioners assigned to the patient when the measure population obserevation was identified</t>
+  </si>
+  <si>
+    <t>careGapComplianceMet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-met}
+</t>
+  </si>
+  <si>
+    <t>Indicates if the patient received the targeted treatment to close the care gap</t>
+  </si>
+  <si>
+    <t>relatedObservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/related-observation}
+</t>
+  </si>
+  <si>
+    <t>Related observations that can be combined to fulfill a single time period for a given care gap or other measure population</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Observation.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>canonicalMeasure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/canonical-measure}
-</t>
-  </si>
-  <si>
-    <t>Canonical reference to the specific version of the measure used to generate the population</t>
-  </si>
-  <si>
-    <t>measurePopulationId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-population-id}
-</t>
-  </si>
-  <si>
-    <t>User-friendly textual key (internal use only) that identifies a specific population. This id should be unique across all measures and should not change when a measure is versioned or when overrides are applied. This value identifies the specific care gap or other population.</t>
-  </si>
-  <si>
-    <t>assignedPractitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/assigned-practitioner}
-</t>
-  </si>
-  <si>
-    <t>The practitioners assigned to the patient when the measure population obserevation was identified</t>
-  </si>
-  <si>
-    <t>careGapComplianceMet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-met}
-</t>
-  </si>
-  <si>
-    <t>Indicates if the patient received the targeted treatment to close the care gap</t>
-  </si>
-  <si>
-    <t>relatedObservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/related-observation}
-</t>
-  </si>
-  <si>
-    <t>Related observations that can be combined to fulfill a single time period for a given care gap or other measure population</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Observation.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4022,13 +4026,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4079,7 +4083,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4103,7 +4107,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4114,7 +4118,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4140,10 +4144,10 @@
         <v>136</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>162</v>
@@ -4187,7 +4191,7 @@
         <v>139</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
@@ -4196,7 +4200,7 @@
         <v>140</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4220,7 +4224,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4231,7 +4235,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4257,16 +4261,16 @@
         <v>111</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4276,7 +4280,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -4291,13 +4295,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4315,7 +4319,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4339,7 +4343,7 @@
         <v>103</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4350,7 +4354,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4373,19 +4377,19 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4395,7 +4399,7 @@
         <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>79</v>
@@ -4410,13 +4414,13 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
@@ -4434,7 +4438,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4455,10 +4459,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4469,7 +4473,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4495,16 +4499,16 @@
         <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4517,7 +4521,7 @@
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -4553,7 +4557,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4574,10 +4578,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4588,7 +4592,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4611,16 +4615,16 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4634,7 +4638,7 @@
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -4670,7 +4674,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4691,10 +4695,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4705,7 +4709,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4728,13 +4732,13 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4785,7 +4789,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4806,10 +4810,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4820,7 +4824,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4843,16 +4847,16 @@
         <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4902,7 +4906,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4923,10 +4927,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4944,7 @@
         <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5079,13 +5083,13 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5136,7 +5140,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5160,7 +5164,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5171,7 +5175,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5197,10 +5201,10 @@
         <v>136</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>162</v>
@@ -5244,7 +5248,7 @@
         <v>139</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
@@ -5253,7 +5257,7 @@
         <v>140</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5277,7 +5281,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5288,7 +5292,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5314,16 +5318,16 @@
         <v>111</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5333,7 +5337,7 @@
         <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>79</v>
@@ -5348,13 +5352,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5372,7 +5376,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5396,7 +5400,7 @@
         <v>103</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5407,7 +5411,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5430,19 +5434,19 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5452,7 +5456,7 @@
         <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
@@ -5467,13 +5471,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5491,7 +5495,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5512,10 +5516,10 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5526,7 +5530,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5552,16 +5556,16 @@
         <v>105</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5574,7 +5578,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5610,7 +5614,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5631,10 +5635,10 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5645,7 +5649,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5668,16 +5672,16 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5691,7 +5695,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5727,7 +5731,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5748,10 +5752,10 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5762,7 +5766,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5785,13 +5789,13 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5842,7 +5846,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5863,10 +5867,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5877,7 +5881,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5900,16 +5904,16 @@
         <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5959,7 +5963,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5980,10 +5984,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5994,11 +5998,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6017,17 +6021,17 @@
         <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6076,7 +6080,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6091,16 +6095,16 @@
         <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6111,11 +6115,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6134,16 +6138,16 @@
         <v>90</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6193,7 +6197,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6208,16 +6212,16 @@
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6228,7 +6232,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6254,16 +6258,16 @@
         <v>111</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6288,13 +6292,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6312,7 +6316,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>89</v>
@@ -6327,19 +6331,19 @@
         <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6347,7 +6351,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6370,19 +6374,19 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6410,10 +6414,10 @@
         <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6431,7 +6435,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6455,10 +6459,10 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6466,11 +6470,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6489,19 +6493,19 @@
         <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6526,11 +6530,11 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6548,7 +6552,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>89</v>
@@ -6563,27 +6567,27 @@
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6606,19 +6610,19 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6667,7 +6671,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6682,19 +6686,19 @@
         <v>102</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6702,7 +6706,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6725,16 +6729,16 @@
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6784,7 +6788,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6805,13 +6809,13 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6819,11 +6823,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6842,19 +6846,19 @@
         <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6903,7 +6907,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6918,19 +6922,19 @@
         <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6938,11 +6942,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6961,19 +6965,19 @@
         <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7022,7 +7026,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7037,19 +7041,19 @@
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7057,7 +7061,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7080,16 +7084,16 @@
         <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7139,7 +7143,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7160,13 +7164,13 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7174,7 +7178,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7197,17 +7201,17 @@
         <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7256,7 +7260,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7271,19 +7275,19 @@
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7291,7 +7295,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7314,19 +7318,19 @@
         <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7375,7 +7379,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7384,7 +7388,7 @@
         <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>102</v>
@@ -7393,24 +7397,24 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7433,19 +7437,19 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7470,13 +7474,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7494,7 +7498,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7503,7 +7507,7 @@
         <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>102</v>
@@ -7518,7 +7522,7 @@
         <v>103</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7529,11 +7533,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7552,19 +7556,19 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7589,13 +7593,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7613,7 +7617,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7631,24 +7635,24 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7671,19 +7675,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7732,7 +7736,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7753,10 +7757,10 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7767,7 +7771,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7790,16 +7794,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7825,13 +7829,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7849,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7867,24 +7871,24 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7907,19 +7911,19 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7944,13 +7948,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7968,7 +7972,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7989,10 +7993,10 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8003,7 +8007,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8026,16 +8030,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8085,7 +8089,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8103,24 +8107,24 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8143,16 +8147,16 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8202,7 +8206,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8220,24 +8224,24 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8260,19 +8264,19 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8321,7 +8325,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8333,7 +8337,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8342,10 +8346,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8356,7 +8360,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8379,13 +8383,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8436,7 +8440,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8460,7 +8464,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8471,7 +8475,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8497,10 +8501,10 @@
         <v>136</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>162</v>
@@ -8553,7 +8557,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8577,7 +8581,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8588,11 +8592,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8614,10 +8618,10 @@
         <v>136</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>162</v>
@@ -8672,7 +8676,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8711,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8730,13 +8734,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8787,7 +8791,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8796,7 +8800,7 @@
         <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>102</v>
@@ -8808,10 +8812,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8822,7 +8826,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8845,13 +8849,13 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8902,7 +8906,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8911,7 +8915,7 @@
         <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>102</v>
@@ -8923,10 +8927,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8937,7 +8941,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8960,19 +8964,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9000,10 +9004,10 @@
         <v>115</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9021,7 +9025,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9039,13 +9043,13 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9056,7 +9060,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9079,19 +9083,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9116,13 +9120,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9140,7 +9144,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9158,13 +9162,13 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9175,7 +9179,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9198,17 +9202,17 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9257,7 +9261,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9281,7 +9285,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9292,7 +9296,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9315,13 +9319,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9372,7 +9376,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9393,10 +9397,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9407,7 +9411,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9430,16 +9434,16 @@
         <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9489,7 +9493,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9510,10 +9514,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9524,7 +9528,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9547,16 +9551,16 @@
         <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9606,7 +9610,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9627,10 +9631,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9641,7 +9645,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9664,19 +9668,19 @@
         <v>90</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9725,7 +9729,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9746,10 +9750,10 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9760,7 +9764,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9783,13 +9787,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9840,7 +9844,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9864,7 +9868,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9875,7 +9879,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9901,10 +9905,10 @@
         <v>136</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>162</v>
@@ -9957,7 +9961,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9981,7 +9985,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9992,11 +9996,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10018,10 +10022,10 @@
         <v>136</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>162</v>
@@ -10076,7 +10080,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10111,7 +10115,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10134,19 +10138,19 @@
         <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10171,13 +10175,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10195,7 +10199,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>89</v>
@@ -10213,16 +10217,16 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10230,7 +10234,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10253,19 +10257,19 @@
         <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10314,7 +10318,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10332,24 +10336,24 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10372,19 +10376,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10409,13 +10413,13 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10433,7 +10437,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10442,7 +10446,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>102</v>
@@ -10457,7 +10461,7 @@
         <v>103</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10468,11 +10472,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10491,19 +10495,19 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10528,13 +10532,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10552,7 +10556,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10570,24 +10574,24 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10613,16 +10617,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10671,7 +10675,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10692,10 +10696,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-measure-population-observation.xlsx
+++ b/StructureDefinition-measure-population-observation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/measure-population-observation</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-population-observation</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Observation created by Health Data Connect to record measure populations for a patient over time</t>
+    <t>Observation created by LinuxForHealth processes to record measure populations for a patient over time</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-observation</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -265,10 +265,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -309,7 +305,7 @@
     <t>Observation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -462,7 +458,7 @@
     <t>canonicalMeasure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/canonical-measure}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/canonical-measure}
 </t>
   </si>
   <si>
@@ -472,7 +468,7 @@
     <t>measurePopulationId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/measure-population-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/measure-population-id}
 </t>
   </si>
   <si>
@@ -482,7 +478,7 @@
     <t>assignedPractitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/assigned-practitioner}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/assigned-practitioner}
 </t>
   </si>
   <si>
@@ -492,7 +488,7 @@
     <t>careGapComplianceMet</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/care-gap-compliance-met}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/care-gap-compliance-met}
 </t>
   </si>
   <si>
@@ -502,7 +498,7 @@
     <t>relatedObservation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/related-observation}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/related-observation}
 </t>
   </si>
   <si>
@@ -658,7 +654,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -782,7 +778,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="DRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -925,7 +921,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/measure-population-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/measure-population-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1118,7 +1114,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity {http://ibm.com/fhir/cdm/StructureDefinition/quantity-with-conversion}
+    <t>Quantity {http://linuxforhealth.org/fhir/cdm/StructureDefinition/quantity-with-conversion}
 stringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
@@ -1987,7 +1983,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.9296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2227,19 +2223,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2250,7 +2246,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2261,28 +2257,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2332,13 +2328,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2367,7 +2363,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2378,7 +2374,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>79</v>
@@ -2390,13 +2386,13 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2447,31 +2443,31 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>79</v>
@@ -2482,7 +2478,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2493,28 +2489,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2564,19 +2560,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2599,7 +2595,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2610,7 +2606,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2622,16 +2618,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2657,43 +2653,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2716,18 +2712,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -2739,16 +2735,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2798,31 +2794,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -2833,11 +2829,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2856,16 +2852,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2915,7 +2911,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2939,7 +2935,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -2950,7 +2946,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2958,7 +2954,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -2973,13 +2969,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3018,17 +3014,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3040,7 +3036,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3063,20 +3059,20 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -3088,13 +3084,13 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3145,7 +3141,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3154,10 +3150,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3180,20 +3176,20 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -3205,13 +3201,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3262,7 +3258,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3271,10 +3267,10 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3297,10 +3293,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
@@ -3322,13 +3318,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3379,7 +3375,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3388,10 +3384,10 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3414,10 +3410,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3427,7 +3423,7 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
@@ -3439,13 +3435,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3496,7 +3492,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3505,10 +3501,10 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -3531,10 +3527,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
@@ -3556,13 +3552,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3613,7 +3609,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3622,10 +3618,10 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -3648,11 +3644,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3665,25 +3661,25 @@
         <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3732,7 +3728,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3744,7 +3740,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -3756,7 +3752,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3767,7 +3763,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3775,7 +3771,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>78</v>
@@ -3787,20 +3783,20 @@
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3837,19 +3833,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AB16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AB16" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3861,22 +3857,22 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3884,10 +3880,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -3897,29 +3893,29 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3968,7 +3964,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3980,22 +3976,22 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4003,7 +3999,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4014,7 +4010,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -4026,13 +4022,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4083,31 +4079,31 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4118,11 +4114,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4141,16 +4137,16 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4188,19 +4184,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4212,7 +4208,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4224,7 +4220,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4235,7 +4231,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4246,31 +4242,31 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4280,70 +4276,70 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="S20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W20" t="s" s="2">
+      <c r="X20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4354,7 +4350,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4362,34 +4358,34 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4399,70 +4395,70 @@
         <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
+      <c r="X21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AM21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4473,7 +4469,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4484,31 +4480,31 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4521,67 +4517,67 @@
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="T22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4592,7 +4588,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4603,28 +4599,28 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4638,67 +4634,67 @@
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4709,7 +4705,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4720,25 +4716,25 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4789,31 +4785,31 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4824,7 +4820,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4835,28 +4831,28 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4906,31 +4902,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4941,10 +4937,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -4954,29 +4950,29 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5025,7 +5021,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5037,22 +5033,22 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5060,7 +5056,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5071,7 +5067,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
@@ -5083,13 +5079,13 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5140,31 +5136,31 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5175,11 +5171,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5198,16 +5194,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5245,19 +5241,19 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AB28" t="s" s="2">
+      <c r="AE28" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5269,7 +5265,7 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5281,7 +5277,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5292,7 +5288,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5303,31 +5299,31 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5337,70 +5333,70 @@
         <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="S29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W29" t="s" s="2">
+      <c r="X29" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5411,7 +5407,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5419,34 +5415,34 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5456,7 +5452,7 @@
         <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
@@ -5471,55 +5467,55 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AM30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5530,7 +5526,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5541,31 +5537,31 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5578,67 +5574,67 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="T31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5649,7 +5645,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5660,28 +5656,28 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5695,67 +5691,67 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="T32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5766,7 +5762,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5777,25 +5773,25 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5846,31 +5842,31 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5881,7 +5877,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5892,28 +5888,28 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5963,31 +5959,31 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5998,11 +5994,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6018,20 +6014,20 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6080,7 +6076,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6092,19 +6088,19 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6115,11 +6111,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6135,19 +6131,19 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6197,7 +6193,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6209,19 +6205,19 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6232,7 +6228,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6240,34 +6236,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6292,58 +6288,58 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6351,7 +6347,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6374,19 +6370,19 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6411,14 +6407,14 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6435,7 +6431,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6447,7 +6443,7 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6459,10 +6455,10 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6470,42 +6466,42 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6530,64 +6526,64 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6595,34 +6591,34 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6671,34 +6667,34 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6706,7 +6702,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6726,19 +6722,19 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6788,7 +6784,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6800,7 +6796,7 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
@@ -6809,13 +6805,13 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6823,11 +6819,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6843,22 +6839,22 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6907,34 +6903,34 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6942,42 +6938,42 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7026,34 +7022,34 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7061,7 +7057,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7081,19 +7077,19 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7143,19 +7139,19 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7164,13 +7160,13 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7178,7 +7174,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7198,20 +7194,20 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7260,7 +7256,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7272,22 +7268,22 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7295,7 +7291,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7315,22 +7311,22 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7379,42 +7375,42 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AI46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7437,19 +7433,19 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7474,55 +7470,55 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH47" t="s" s="2">
+      <c r="AI47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7533,11 +7529,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7556,19 +7552,19 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7593,14 +7589,14 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7617,7 +7613,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7629,30 +7625,30 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7675,19 +7671,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7736,7 +7732,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7748,7 +7744,7 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7757,10 +7753,10 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7771,7 +7767,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7794,16 +7790,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7829,66 +7825,66 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7911,19 +7907,19 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7948,55 +7944,55 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8007,7 +8003,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8030,16 +8026,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8089,42 +8085,42 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8147,16 +8143,16 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8206,42 +8202,42 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8264,19 +8260,19 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8325,7 +8321,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8337,19 +8333,19 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8360,7 +8356,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8371,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8383,13 +8379,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8440,31 +8436,31 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8475,11 +8471,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8498,16 +8494,16 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8557,7 +8553,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8569,7 +8565,7 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
@@ -8581,7 +8577,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8592,11 +8588,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8609,25 +8605,25 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="M57" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8676,7 +8672,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8688,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8700,7 +8696,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8711,7 +8707,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8722,7 +8718,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8734,13 +8730,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8791,31 +8787,31 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AI58" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8826,7 +8822,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8837,7 +8833,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8849,13 +8845,13 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8906,31 +8902,31 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8941,7 +8937,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8952,7 +8948,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8964,19 +8960,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9001,55 +8997,55 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9060,7 +9056,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9083,19 +9079,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9120,14 +9116,14 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9144,7 +9140,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9156,19 +9152,19 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9179,7 +9175,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9190,7 +9186,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9202,17 +9198,17 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9261,19 +9257,19 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9285,7 +9281,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9296,7 +9292,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9307,7 +9303,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9319,13 +9315,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9376,19 +9372,19 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9397,10 +9393,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9411,7 +9407,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9431,19 +9427,19 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9493,7 +9489,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9505,7 +9501,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9514,10 +9510,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9528,7 +9524,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9548,19 +9544,19 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9610,7 +9606,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9622,7 +9618,7 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9631,10 +9627,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9645,7 +9641,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9665,22 +9661,22 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9729,7 +9725,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9741,7 +9737,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9750,10 +9746,10 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9764,7 +9760,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9775,7 +9771,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9787,13 +9783,13 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9844,31 +9840,31 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9879,11 +9875,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9902,16 +9898,16 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9961,7 +9957,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9973,7 +9969,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -9985,7 +9981,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9996,11 +9992,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10013,25 +10009,25 @@
         <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="M69" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10080,7 +10076,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10092,7 +10088,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10104,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10115,7 +10111,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10123,34 +10119,34 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="N70" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10175,58 +10171,58 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AL70" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10234,7 +10230,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10245,31 +10241,31 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10318,42 +10314,42 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10364,7 +10360,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10376,19 +10372,19 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10413,55 +10409,55 @@
         <v>79</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
+      <c r="AI72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10472,11 +10468,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10495,19 +10491,19 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10532,14 +10528,14 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10556,7 +10552,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10568,30 +10564,30 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10617,16 +10613,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="M74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10675,7 +10671,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10687,7 +10683,7 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10696,10 +10692,10 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
